--- a/data/coefficient/108.xlsx
+++ b/data/coefficient/108.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>start_time</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>congestion_coefficient</t>
+  </si>
+  <si>
+    <t>location</t>
   </si>
 </sst>
 </file>
@@ -1245,10 +1248,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="D44" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R58"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1257,7 +1260,7 @@
     <col min="14" max="18" width="14.1111111111111" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1312,8 +1315,11 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="2">
         <v>45413.4826388889</v>
       </c>
@@ -1374,8 +1380,11 @@
         <f>(0.33*N2+0.33*P2+0.33*O2)/L2</f>
         <v>0.360090389594377</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="2">
         <v>45413.4861111111</v>
       </c>
@@ -1436,8 +1445,11 @@
         <f t="shared" ref="R3:R34" si="3">(0.33*N3+0.33*P3+0.33*O3)/L3</f>
         <v>0.327712425591574</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="2">
         <v>45413.4895833333</v>
       </c>
@@ -1498,8 +1510,11 @@
         <f t="shared" si="3"/>
         <v>0.342747552204884</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="2">
         <v>45413.4930555556</v>
       </c>
@@ -1560,8 +1575,11 @@
         <f t="shared" si="3"/>
         <v>0.351052338726213</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="2">
         <v>45413.4965277778</v>
       </c>
@@ -1622,8 +1640,11 @@
         <f t="shared" si="3"/>
         <v>0.336430581358448</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="2">
         <v>45413.5</v>
       </c>
@@ -1684,8 +1705,11 @@
         <f t="shared" si="3"/>
         <v>0.287804317157548</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="2">
         <v>45413.5034722222</v>
       </c>
@@ -1746,8 +1770,11 @@
         <f t="shared" si="3"/>
         <v>0.294683198558319</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="2">
         <v>45413.5069444444</v>
       </c>
@@ -1808,8 +1835,11 @@
         <f t="shared" si="3"/>
         <v>0.309805029224841</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="2">
         <v>45413.5104166667</v>
       </c>
@@ -1870,8 +1900,11 @@
         <f t="shared" si="3"/>
         <v>0.298950392780608</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="2">
         <v>45413.5138888889</v>
       </c>
@@ -1932,8 +1965,11 @@
         <f t="shared" si="3"/>
         <v>0.189118304128535</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="2">
         <v>45413.5173611111</v>
       </c>
@@ -1994,8 +2030,11 @@
         <f t="shared" si="3"/>
         <v>0.377717271040802</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="2">
         <v>45413.5208333333</v>
       </c>
@@ -2056,8 +2095,11 @@
         <f t="shared" si="3"/>
         <v>0.324031745455308</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="2">
         <v>45413.5243055556</v>
       </c>
@@ -2118,8 +2160,11 @@
         <f t="shared" si="3"/>
         <v>0.270823410096554</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="2">
         <v>45413.5277777778</v>
       </c>
@@ -2180,8 +2225,11 @@
         <f t="shared" si="3"/>
         <v>0.343070455174317</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="2">
         <v>45413.53125</v>
       </c>
@@ -2242,8 +2290,11 @@
         <f t="shared" si="3"/>
         <v>0.307731050227312</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="2">
         <v>45413.5347222222</v>
       </c>
@@ -2304,8 +2355,11 @@
         <f t="shared" si="3"/>
         <v>0.262003437160289</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="2">
         <v>45413.5381944444</v>
       </c>
@@ -2366,8 +2420,11 @@
         <f t="shared" si="3"/>
         <v>0.285035358961304</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="2">
         <v>45413.5416666667</v>
       </c>
@@ -2428,8 +2485,11 @@
         <f t="shared" si="3"/>
         <v>0.179135451444314</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="2">
         <v>45413.5451388889</v>
       </c>
@@ -2490,8 +2550,11 @@
         <f t="shared" si="3"/>
         <v>0.218561498470982</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="2">
         <v>45413.5486111111</v>
       </c>
@@ -2552,8 +2615,11 @@
         <f t="shared" si="3"/>
         <v>0.338219110077374</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="2">
         <v>45413.5520833333</v>
       </c>
@@ -2614,8 +2680,11 @@
         <f t="shared" si="3"/>
         <v>0.185184923628693</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="2">
         <v>45413.5555555556</v>
       </c>
@@ -2676,8 +2745,11 @@
         <f t="shared" si="3"/>
         <v>0.298183800741095</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="2">
         <v>45413.5590277778</v>
       </c>
@@ -2738,8 +2810,11 @@
         <f t="shared" si="3"/>
         <v>0.24475202626963</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="2">
         <v>45413.5625</v>
       </c>
@@ -2800,8 +2875,11 @@
         <f t="shared" si="3"/>
         <v>0.408613410861411</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="2">
         <v>45413.5659722222</v>
       </c>
@@ -2862,8 +2940,11 @@
         <f t="shared" si="3"/>
         <v>0.35692965554618</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="2">
         <v>45413.5694444444</v>
       </c>
@@ -2924,8 +3005,11 @@
         <f t="shared" si="3"/>
         <v>0.30033330760248</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="2">
         <v>45413.5729166667</v>
       </c>
@@ -2986,8 +3070,11 @@
         <f t="shared" si="3"/>
         <v>0.314740463597408</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="2">
         <v>45413.5763888889</v>
       </c>
@@ -3048,8 +3135,11 @@
         <f t="shared" si="3"/>
         <v>0.269643212541961</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="2">
         <v>45413.5798611111</v>
       </c>
@@ -3110,8 +3200,11 @@
         <f t="shared" si="3"/>
         <v>0.419833983527033</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="2">
         <v>45413.5833333333</v>
       </c>
@@ -3172,8 +3265,11 @@
         <f t="shared" si="3"/>
         <v>0.310703563619201</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="2">
         <v>45413.5868055556</v>
       </c>
@@ -3234,8 +3330,11 @@
         <f t="shared" si="3"/>
         <v>0.155828581114854</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="2">
         <v>45413.5902777778</v>
       </c>
@@ -3296,8 +3395,11 @@
         <f t="shared" si="3"/>
         <v>0.0297544271444434</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="2">
         <v>45413.59375</v>
       </c>
@@ -3358,8 +3460,11 @@
         <f t="shared" si="3"/>
         <v>0.124401166068675</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="2">
         <v>45413.5972222222</v>
       </c>
@@ -3420,8 +3525,11 @@
         <f t="shared" ref="R35:R58" si="36">(0.33*N35+0.33*P35+0.33*O35)/L35</f>
         <v>0.055446220479917</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="2">
         <v>45413.6006944444</v>
       </c>
@@ -3482,8 +3590,11 @@
         <f t="shared" si="36"/>
         <v>0.159807759933262</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="2">
         <v>45413.6041666667</v>
       </c>
@@ -3544,8 +3655,11 @@
         <f t="shared" si="36"/>
         <v>0.0682373908361633</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="2">
         <v>45413.6076388889</v>
       </c>
@@ -3606,8 +3720,11 @@
         <f t="shared" si="36"/>
         <v>0.0868843845344452</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="2">
         <v>45413.6111111111</v>
       </c>
@@ -3668,8 +3785,11 @@
         <f t="shared" si="36"/>
         <v>0.0730410944336317</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="2">
         <v>45413.6145833333</v>
       </c>
@@ -3730,8 +3850,11 @@
         <f t="shared" si="36"/>
         <v>0.105142943272297</v>
       </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="2">
         <v>45413.6180555556</v>
       </c>
@@ -3792,8 +3915,11 @@
         <f t="shared" si="36"/>
         <v>0.161968515710073</v>
       </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="2">
         <v>45413.6215277778</v>
       </c>
@@ -3854,8 +3980,11 @@
         <f t="shared" si="36"/>
         <v>0.252053285115475</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="2">
         <v>45413.625</v>
       </c>
@@ -3916,8 +4045,11 @@
         <f t="shared" si="36"/>
         <v>0.178648279238172</v>
       </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="2">
         <v>45413.6284722222</v>
       </c>
@@ -3978,8 +4110,11 @@
         <f t="shared" si="36"/>
         <v>0.103857438350298</v>
       </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="2">
         <v>45413.6319444444</v>
       </c>
@@ -4040,8 +4175,11 @@
         <f t="shared" si="36"/>
         <v>0.072027159262343</v>
       </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="2">
         <v>45413.6354166667</v>
       </c>
@@ -4102,8 +4240,11 @@
         <f t="shared" si="36"/>
         <v>0.0437134007197521</v>
       </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="2">
         <v>45413.6388888889</v>
       </c>
@@ -4164,8 +4305,11 @@
         <f t="shared" si="36"/>
         <v>0.168512902525106</v>
       </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="S47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="2">
         <v>45413.6423611111</v>
       </c>
@@ -4226,8 +4370,11 @@
         <f t="shared" si="36"/>
         <v>0.20308891655222</v>
       </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="2">
         <v>45413.6458333333</v>
       </c>
@@ -4288,8 +4435,11 @@
         <f t="shared" si="36"/>
         <v>0.115557232924587</v>
       </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="2">
         <v>45413.6493055556</v>
       </c>
@@ -4350,8 +4500,11 @@
         <f t="shared" si="36"/>
         <v>0.139043791143651</v>
       </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="S50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="2">
         <v>45413.6527777778</v>
       </c>
@@ -4412,8 +4565,11 @@
         <f t="shared" si="36"/>
         <v>0.227256232473454</v>
       </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="S51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="2">
         <v>45413.65625</v>
       </c>
@@ -4474,8 +4630,11 @@
         <f t="shared" si="36"/>
         <v>0.0277986473021344</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="S52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="2">
         <v>45413.6597222222</v>
       </c>
@@ -4536,8 +4695,11 @@
         <f t="shared" si="36"/>
         <v>0.155765553488239</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="S53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="2">
         <v>45413.6631944444</v>
       </c>
@@ -4598,8 +4760,11 @@
         <f t="shared" si="36"/>
         <v>0.239179148987281</v>
       </c>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="S54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="2">
         <v>45413.6666666667</v>
       </c>
@@ -4660,8 +4825,11 @@
         <f t="shared" si="36"/>
         <v>0.139680307937168</v>
       </c>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="S55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="2">
         <v>45413.6701388889</v>
       </c>
@@ -4722,8 +4890,11 @@
         <f t="shared" si="36"/>
         <v>0.227236998724376</v>
       </c>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="S56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="2">
         <v>45413.6736111111</v>
       </c>
@@ -4784,8 +4955,11 @@
         <f t="shared" si="36"/>
         <v>0.0438422821778149</v>
       </c>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="S57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="2">
         <v>45413.6770833333</v>
       </c>
@@ -4845,6 +5019,9 @@
       <c r="R58" s="1">
         <f t="shared" si="36"/>
         <v>0.137049615920703</v>
+      </c>
+      <c r="S58">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/coefficient/108.xlsx
+++ b/data/coefficient/108.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>start_time</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>location</t>
+  </si>
+  <si>
+    <t>is_spot</t>
+  </si>
+  <si>
+    <t>is_service_area</t>
   </si>
 </sst>
 </file>
@@ -1248,10 +1254,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S58"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="G19" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28:U58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1260,7 +1266,7 @@
     <col min="14" max="18" width="14.1111111111111" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1318,8 +1324,14 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="2">
         <v>45413.4826388889</v>
       </c>
@@ -1383,8 +1395,14 @@
       <c r="S2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="2">
         <v>45413.4861111111</v>
       </c>
@@ -1448,8 +1466,14 @@
       <c r="S3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="2">
         <v>45413.4895833333</v>
       </c>
@@ -1513,8 +1537,14 @@
       <c r="S4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="2">
         <v>45413.4930555556</v>
       </c>
@@ -1578,8 +1608,14 @@
       <c r="S5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="2">
         <v>45413.4965277778</v>
       </c>
@@ -1643,8 +1679,14 @@
       <c r="S6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="2">
         <v>45413.5</v>
       </c>
@@ -1708,8 +1750,14 @@
       <c r="S7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="2">
         <v>45413.5034722222</v>
       </c>
@@ -1773,8 +1821,14 @@
       <c r="S8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="2">
         <v>45413.5069444444</v>
       </c>
@@ -1838,8 +1892,14 @@
       <c r="S9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="2">
         <v>45413.5104166667</v>
       </c>
@@ -1903,8 +1963,14 @@
       <c r="S10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="2">
         <v>45413.5138888889</v>
       </c>
@@ -1968,8 +2034,14 @@
       <c r="S11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="2">
         <v>45413.5173611111</v>
       </c>
@@ -2033,8 +2105,14 @@
       <c r="S12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="2">
         <v>45413.5208333333</v>
       </c>
@@ -2098,8 +2176,14 @@
       <c r="S13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="2">
         <v>45413.5243055556</v>
       </c>
@@ -2163,8 +2247,14 @@
       <c r="S14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="2">
         <v>45413.5277777778</v>
       </c>
@@ -2228,8 +2318,14 @@
       <c r="S15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="2">
         <v>45413.53125</v>
       </c>
@@ -2293,8 +2389,14 @@
       <c r="S16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="2">
         <v>45413.5347222222</v>
       </c>
@@ -2358,8 +2460,14 @@
       <c r="S17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="2">
         <v>45413.5381944444</v>
       </c>
@@ -2423,8 +2531,14 @@
       <c r="S18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="2">
         <v>45413.5416666667</v>
       </c>
@@ -2488,8 +2602,14 @@
       <c r="S19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="2">
         <v>45413.5451388889</v>
       </c>
@@ -2553,8 +2673,14 @@
       <c r="S20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="2">
         <v>45413.5486111111</v>
       </c>
@@ -2618,8 +2744,14 @@
       <c r="S21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="2">
         <v>45413.5520833333</v>
       </c>
@@ -2683,8 +2815,14 @@
       <c r="S22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="2">
         <v>45413.5555555556</v>
       </c>
@@ -2748,8 +2886,14 @@
       <c r="S23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="2">
         <v>45413.5590277778</v>
       </c>
@@ -2813,8 +2957,14 @@
       <c r="S24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="2">
         <v>45413.5625</v>
       </c>
@@ -2878,8 +3028,14 @@
       <c r="S25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="2">
         <v>45413.5659722222</v>
       </c>
@@ -2943,8 +3099,14 @@
       <c r="S26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="2">
         <v>45413.5694444444</v>
       </c>
@@ -3008,8 +3170,14 @@
       <c r="S27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="2">
         <v>45413.5729166667</v>
       </c>
@@ -3073,8 +3241,14 @@
       <c r="S28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="2">
         <v>45413.5763888889</v>
       </c>
@@ -3138,8 +3312,14 @@
       <c r="S29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="2">
         <v>45413.5798611111</v>
       </c>
@@ -3203,8 +3383,14 @@
       <c r="S30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="2">
         <v>45413.5833333333</v>
       </c>
@@ -3268,8 +3454,14 @@
       <c r="S31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="2">
         <v>45413.5868055556</v>
       </c>
@@ -3333,8 +3525,14 @@
       <c r="S32">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="2">
         <v>45413.5902777778</v>
       </c>
@@ -3398,8 +3596,14 @@
       <c r="S33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="2">
         <v>45413.59375</v>
       </c>
@@ -3463,8 +3667,14 @@
       <c r="S34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="2">
         <v>45413.5972222222</v>
       </c>
@@ -3528,8 +3738,14 @@
       <c r="S35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="2">
         <v>45413.6006944444</v>
       </c>
@@ -3593,8 +3809,14 @@
       <c r="S36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="2">
         <v>45413.6041666667</v>
       </c>
@@ -3658,8 +3880,14 @@
       <c r="S37">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="2">
         <v>45413.6076388889</v>
       </c>
@@ -3723,8 +3951,14 @@
       <c r="S38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="2">
         <v>45413.6111111111</v>
       </c>
@@ -3788,8 +4022,14 @@
       <c r="S39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="2">
         <v>45413.6145833333</v>
       </c>
@@ -3853,8 +4093,14 @@
       <c r="S40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="2">
         <v>45413.6180555556</v>
       </c>
@@ -3918,8 +4164,14 @@
       <c r="S41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="2">
         <v>45413.6215277778</v>
       </c>
@@ -3983,8 +4235,14 @@
       <c r="S42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="2">
         <v>45413.625</v>
       </c>
@@ -4048,8 +4306,14 @@
       <c r="S43">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="2">
         <v>45413.6284722222</v>
       </c>
@@ -4113,8 +4377,14 @@
       <c r="S44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" s="2">
         <v>45413.6319444444</v>
       </c>
@@ -4178,8 +4448,14 @@
       <c r="S45">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" s="2">
         <v>45413.6354166667</v>
       </c>
@@ -4243,8 +4519,14 @@
       <c r="S46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" s="2">
         <v>45413.6388888889</v>
       </c>
@@ -4308,8 +4590,14 @@
       <c r="S47">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" s="2">
         <v>45413.6423611111</v>
       </c>
@@ -4373,8 +4661,14 @@
       <c r="S48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" s="2">
         <v>45413.6458333333</v>
       </c>
@@ -4438,8 +4732,14 @@
       <c r="S49">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" s="2">
         <v>45413.6493055556</v>
       </c>
@@ -4503,8 +4803,14 @@
       <c r="S50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="2">
         <v>45413.6527777778</v>
       </c>
@@ -4568,8 +4874,14 @@
       <c r="S51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" s="2">
         <v>45413.65625</v>
       </c>
@@ -4633,8 +4945,14 @@
       <c r="S52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" s="2">
         <v>45413.6597222222</v>
       </c>
@@ -4698,8 +5016,14 @@
       <c r="S53">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" s="2">
         <v>45413.6631944444</v>
       </c>
@@ -4763,8 +5087,14 @@
       <c r="S54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" s="2">
         <v>45413.6666666667</v>
       </c>
@@ -4828,8 +5158,14 @@
       <c r="S55">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" s="2">
         <v>45413.6701388889</v>
       </c>
@@ -4893,8 +5229,14 @@
       <c r="S56">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" s="2">
         <v>45413.6736111111</v>
       </c>
@@ -4958,8 +5300,14 @@
       <c r="S57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" s="2">
         <v>45413.6770833333</v>
       </c>
@@ -5022,6 +5370,12 @@
       </c>
       <c r="S58">
         <v>5</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
